--- a/data/data_estudiantes_sexo.xlsx
+++ b/data/data_estudiantes_sexo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_diazc_uniandes_edu_co/Documents/Semestre 7/Introducción a la Ciencia de Datos/Taller 3/IntroCienciaDatos3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_diazc_uniandes_edu_co/Documents/Semestre 7/Introducción a la Ciencia de Datos/Taller 3/IntroCienciaDatos3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF396A7-9BAF-5948-895F-3E94BFC7ED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{DDF396A7-9BAF-5948-895F-3E94BFC7ED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5053F50-7E94-4D64-9974-C57077F7AB67}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{1235AEE8-C6FA-1548-8AF2-97A7EC8E1CB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1235AEE8-C6FA-1548-8AF2-97A7EC8E1CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,10 +265,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,55 +586,55 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -663,7 +663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -692,7 +692,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -721,7 +721,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -779,7 +779,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -837,7 +837,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -895,7 +895,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -924,7 +924,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -953,7 +953,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -982,7 +982,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1562,10 +1562,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
       <c r="C35">
         <v>2</v>
       </c>
@@ -1575,11 +1578,26 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
       <c r="C36">
         <v>2</v>
       </c>
@@ -1589,6 +1607,9 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
       <c r="G36">
         <v>1</v>
       </c>
@@ -1599,13 +1620,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
       <c r="F37">
         <v>1</v>
       </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
       <c r="H37" s="1">
         <v>1</v>
       </c>
@@ -1613,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -1642,7 +1678,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1671,10 +1707,13 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>2</v>
       </c>
@@ -1684,6 +1723,9 @@
       <c r="E40" s="1">
         <v>1</v>
       </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
       <c r="G40">
         <v>2</v>
       </c>
@@ -1694,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -1723,7 +1765,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1752,13 +1794,16 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
@@ -1778,7 +1823,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1807,7 +1852,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -1836,7 +1881,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -1865,7 +1910,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -1894,7 +1939,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -1923,7 +1968,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1952,7 +1997,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1981,7 +2026,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2010,7 +2055,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2039,7 +2084,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2068,7 +2113,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2097,7 +2142,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2126,7 +2171,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2155,7 +2200,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2184,7 +2229,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2213,14 +2258,14 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>1663</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>3357</v>
       </c>
       <c r="D59" s="1">
@@ -2229,10 +2274,10 @@
       <c r="E59" s="1">
         <v>0.67</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>1611</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>3285</v>
       </c>
       <c r="H59" s="1">
@@ -2242,7 +2287,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2271,14 +2316,14 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>6585</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>7531</v>
       </c>
       <c r="D61" s="1">
@@ -2287,10 +2332,10 @@
       <c r="E61" s="1">
         <v>0.53</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <v>6632</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="2">
         <v>7611</v>
       </c>
       <c r="H61" s="1">
